--- a/biology/Médecine/Rush_Medical_College/Rush_Medical_College.xlsx
+++ b/biology/Médecine/Rush_Medical_College/Rush_Medical_College.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rush Medical College est la faculté de médecine de l'Université Rush, située dans le district médical de l'Illinois, à environ 3 km à l'ouest du Loop à Chicago. 
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1837 par Daniel Brainard, l'école, nommée en l'honneur de Benjamin Rush, ouvre ses portes avec 22 étudiants le 4 décembre 1843[1]. 
-L'établissement offre un programme de doctorat en médecine et est de nos jours affiliée principalement au Rush University Medical Center (en) et au John H. Stroger Jr. Hospital of Cook County (en). En 2021, le Rush Medical College a été classé 64e parmi les instituts de recherche aux États-Unis par U.S. News &amp; World Report[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1837 par Daniel Brainard, l'école, nommée en l'honneur de Benjamin Rush, ouvre ses portes avec 22 étudiants le 4 décembre 1843. 
+L'établissement offre un programme de doctorat en médecine et est de nos jours affiliée principalement au Rush University Medical Center (en) et au John H. Stroger Jr. Hospital of Cook County (en). En 2021, le Rush Medical College a été classé 64e parmi les instituts de recherche aux États-Unis par U.S. News &amp; World Report. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Anciens élèves</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Alexander Cameron
 Morris Fishbein
